--- a/inst/extdata/elisa_example.xlsx
+++ b/inst/extdata/elisa_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umassmed-my.sharepoint.com/personal/shubham_dutta_umassmed_edu/Documents/02_Work/01_Massbiologics/03_Squirrel-monkey/07_Squirrel_monkey_aBACE1_SKL/02_raw-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umassmed-my.sharepoint.com/personal/shubham_dutta_umassmed_edu/Documents/01_Personal/00_Important_main/02_R-projects/00_Packages/96_ELISA/elisa/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C401B787-232C-3248-BABE-29E2CF327642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F95367-FF59-F243-A8EE-74D956EB8A6E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C401B787-232C-3248-BABE-29E2CF327642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3F958D-626C-A54A-8A9F-69A253940575}"/>
   <bookViews>
-    <workbookView xWindow="44460" yWindow="2780" windowWidth="27640" windowHeight="16940" xr2:uid="{1963BD4C-2C0D-3F4C-B4AC-9F1124870B84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{1963BD4C-2C0D-3F4C-B4AC-9F1124870B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="26">
-  <si>
-    <t>coat_protein</t>
-  </si>
   <si>
     <t>A</t>
   </si>
@@ -71,9 +68,6 @@
     <t>coat_protein_source</t>
   </si>
   <si>
-    <t>primary_mab</t>
-  </si>
-  <si>
     <t>sec_only</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
   </si>
   <si>
     <t>primary_mab_clone</t>
-  </si>
-  <si>
-    <t>secondary_mab</t>
   </si>
   <si>
     <t>goat-aHuman</t>
@@ -114,6 +105,15 @@
   </si>
   <si>
     <t>primary_mab_conc</t>
+  </si>
+  <si>
+    <t>coat_protein_name</t>
+  </si>
+  <si>
+    <t>primary_mab_name</t>
+  </si>
+  <si>
+    <t>secondary_mab_name</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408B0DB8-95EC-C34C-B797-153BF5DEAE97}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -508,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -549,239 +549,239 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>0.2</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>0.2</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1095,239 +1095,239 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1368,239 +1368,239 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="G37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>6626.1</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>6626.1</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>6626.1</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>6626.1</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>6626.1</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>6626.1</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>6626.1</v>
@@ -1844,12 +1844,12 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53:I53" si="0">B52/4</f>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <f t="shared" ref="B54:I58" si="1">B53/4</f>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2211,239 +2211,239 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2484,239 +2484,239 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>1.3959999999999999</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>1.3740000000000001</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>1.181</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>0.84399999999999997</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86">
         <v>0.51300000000000001</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>0.253</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88">
         <v>0.19700000000000001</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>0.18</v>

--- a/inst/extdata/elisa_example.xlsx
+++ b/inst/extdata/elisa_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umassmed-my.sharepoint.com/personal/shubham_dutta_umassmed_edu/Documents/01_Personal/00_Important_main/02_R-projects/00_Packages/96_ELISA/elisa/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C401B787-232C-3248-BABE-29E2CF327642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3F958D-626C-A54A-8A9F-69A253940575}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{C401B787-232C-3248-BABE-29E2CF327642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CB8B07-806E-2B45-875B-518859DEEF3C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{1963BD4C-2C0D-3F4C-B4AC-9F1124870B84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{1963BD4C-2C0D-3F4C-B4AC-9F1124870B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="E2" sqref="E2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
